--- a/qa/01.测试用例/交互系统/公会系统/公会系统具体内容测试用例.xlsx
+++ b/qa/01.测试用例/交互系统/公会系统/公会系统具体内容测试用例.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="公会祈福" sheetId="2" r:id="rId1"/>
     <sheet name="公会科技" sheetId="1" r:id="rId2"/>
     <sheet name="公会任务" sheetId="3" r:id="rId3"/>
+    <sheet name="公会基地" sheetId="4" r:id="rId4"/>
+    <sheet name="其他数值" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
   <si>
     <t>公会科技</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -269,6 +271,136 @@
   <si>
     <t>目标个数</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关副本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3——</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3——</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <t>4——1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4——2</t>
+  </si>
+  <si>
+    <t>4——7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4——8</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4——7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会基地</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力段</t>
+  </si>
+  <si>
+    <t>驻守每秒产出金币</t>
+  </si>
+  <si>
+    <t>雇佣消耗金币</t>
+  </si>
+  <si>
+    <t>玩家实际获得的雇佣金币</t>
+  </si>
+  <si>
+    <t>驻守位解锁需要的个人历史贡献值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建公会消耗金币数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会成员互赠体力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次赠送为1点活力</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家每日可领取活力值次数上限为20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3档今日贡献值可领奖励及对应需要贡献值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡卷*3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gongxianzhi1</t>
+  </si>
+  <si>
+    <t>大宠物经验药*2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gongxianzhi2</t>
+  </si>
+  <si>
+    <t>50钻石</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gongxianzhi3</t>
   </si>
 </sst>
 </file>
@@ -396,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -405,6 +537,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,11 +554,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -729,7 +862,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -776,42 +909,42 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>10000</v>
       </c>
-      <c r="C6" s="10">
-        <v>20</v>
-      </c>
-      <c r="D6" s="10">
-        <v>20</v>
+      <c r="C6" s="9">
+        <v>50</v>
+      </c>
+      <c r="D6" s="9">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10">
-        <v>20</v>
-      </c>
-      <c r="C7" s="10">
-        <v>60</v>
-      </c>
-      <c r="D7" s="10">
-        <v>60</v>
+      <c r="B7" s="9">
+        <v>40</v>
+      </c>
+      <c r="C7" s="9">
+        <v>100</v>
+      </c>
+      <c r="D7" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10">
-        <v>100</v>
-      </c>
-      <c r="C8" s="10">
-        <v>320</v>
-      </c>
-      <c r="D8" s="10">
-        <v>320</v>
+      <c r="B8" s="9">
+        <v>200</v>
+      </c>
+      <c r="C8" s="9">
+        <v>250</v>
+      </c>
+      <c r="D8" s="9">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -875,24 +1008,24 @@
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="10">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>2</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <f>G7</f>
         <v>1500</v>
       </c>
@@ -901,13 +1034,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="10">
+      <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>3</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <f>G8-G7</f>
         <v>8500</v>
       </c>
@@ -1047,16 +1180,16 @@
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="10">
-        <v>1</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
         <v>15</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="6">
         <v>300</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1067,136 +1200,136 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="10">
+      <c r="B20" s="6">
         <v>2</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="6">
         <v>2</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="6">
         <v>20</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="6">
         <f t="shared" ref="E20:E28" si="1">$E$19+$H$19*(B20-1)+$H$18*(B20-2)</f>
         <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="10">
+      <c r="B21" s="6">
         <v>3</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="6">
         <v>3</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="6">
         <v>25</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="6">
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="10">
+      <c r="B22" s="6">
         <v>4</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="6">
         <v>4</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="6">
         <v>30</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="6">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="10">
+      <c r="B23" s="6">
         <v>5</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="6">
         <v>5</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="6">
         <v>35</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="6">
         <f t="shared" si="1"/>
         <v>3200</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="10">
+      <c r="B24" s="6">
         <v>6</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="6">
         <v>6</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="6">
         <v>40</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="6">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B25" s="10">
+      <c r="B25" s="6">
         <v>7</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="6">
         <v>7</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="6">
         <v>45</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="6">
         <f t="shared" si="1"/>
         <v>4800</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="10">
+      <c r="B26" s="6">
         <v>8</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="6">
         <v>8</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="6">
         <v>50</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="6">
         <f t="shared" si="1"/>
         <v>5600</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B27" s="10">
+      <c r="B27" s="6">
         <v>9</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="6">
         <v>9</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="6">
         <v>55</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="6">
         <f t="shared" si="1"/>
         <v>6400</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="10">
+      <c r="B28" s="6">
         <v>10</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="6">
         <v>10</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="6">
         <v>60</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="6">
         <f t="shared" si="1"/>
         <v>7200</v>
       </c>
@@ -1222,150 +1355,150 @@
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="10">
-        <v>1</v>
-      </c>
-      <c r="C32" s="10">
-        <v>1</v>
-      </c>
-      <c r="D32" s="10">
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6">
         <v>0.02</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="6">
         <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B33" s="10">
+      <c r="B33" s="6">
         <v>2</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="6">
         <v>2</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="6">
         <v>0.04</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="6">
         <f t="shared" ref="E33:E41" si="2">$E$19+$H$19*(B33-1)+$H$18*(B33-2)</f>
         <v>800</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B34" s="10">
+      <c r="B34" s="6">
         <v>3</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="6">
         <v>3</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="6">
         <v>0.06</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="6">
         <f t="shared" si="2"/>
         <v>1600</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B35" s="10">
+      <c r="B35" s="6">
         <v>4</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="6">
         <v>4</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="6">
         <v>0.08</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="6">
         <f t="shared" si="2"/>
         <v>2400</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B36" s="10">
+      <c r="B36" s="6">
         <v>5</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="6">
         <v>5</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="6">
         <v>0.1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="6">
         <f t="shared" si="2"/>
         <v>3200</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="10">
+      <c r="B37" s="6">
         <v>6</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="6">
         <v>6</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="6">
         <v>0.12</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="6">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B38" s="10">
+      <c r="B38" s="6">
         <v>7</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="6">
         <v>7</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="6">
         <f t="shared" si="2"/>
         <v>4800</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B39" s="10">
+      <c r="B39" s="6">
         <v>8</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="6">
         <v>8</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="6">
         <v>0.16</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="6">
         <f t="shared" si="2"/>
         <v>5600</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B40" s="10">
+      <c r="B40" s="6">
         <v>9</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="6">
         <v>9</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="6">
         <v>0.18</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="6">
         <f t="shared" si="2"/>
         <v>6400</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B41" s="10">
+      <c r="B41" s="6">
         <v>10</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="6">
         <v>10</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="6">
         <v>0.2</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="6">
         <f t="shared" si="2"/>
         <v>7200</v>
       </c>
@@ -1391,150 +1524,150 @@
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="10">
-        <v>1</v>
-      </c>
-      <c r="C44" s="10">
-        <v>1</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="6">
         <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B45" s="10">
+      <c r="B45" s="6">
         <v>2</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="6">
         <v>2</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="6">
         <f t="shared" ref="E45:E53" si="3">$E$19+$H$19*(B45-1)+$H$18*(B45-2)</f>
         <v>800</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B46" s="10">
+      <c r="B46" s="6">
         <v>3</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="6">
         <v>3</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="6">
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B47" s="10">
+      <c r="B47" s="6">
         <v>4</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="6">
         <v>4</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="6">
         <f t="shared" si="3"/>
         <v>2400</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B48" s="10">
+      <c r="B48" s="6">
         <v>5</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="6">
         <v>5</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="6">
         <f t="shared" si="3"/>
         <v>3200</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B49" s="10">
+      <c r="B49" s="6">
         <v>6</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="6">
         <v>6</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="6">
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B50" s="10">
+      <c r="B50" s="6">
         <v>7</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="6">
         <v>7</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="6">
         <f t="shared" si="3"/>
         <v>4800</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B51" s="10">
+      <c r="B51" s="6">
         <v>8</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="6">
         <v>8</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="6">
         <f t="shared" si="3"/>
         <v>5600</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B52" s="10">
+      <c r="B52" s="6">
         <v>9</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="6">
         <v>9</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="6">
         <f t="shared" si="3"/>
         <v>6400</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B53" s="10">
+      <c r="B53" s="6">
         <v>10</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="6">
         <v>10</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="6">
         <f t="shared" si="3"/>
         <v>7200</v>
       </c>
@@ -1547,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1573,38 +1706,38 @@
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
@@ -1633,111 +1766,111 @@
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="9">
         <v>100</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>20</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="9">
         <f>0.4*B6</f>
         <v>40</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="9">
         <v>5000</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="6">
         <v>50</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="6">
         <v>15100</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="6">
         <v>160</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="13">
+      <c r="B7" s="9">
         <v>180</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="9">
         <v>30</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="9">
         <f t="shared" ref="D7:D13" si="0">0.4*B7</f>
         <v>72</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="9">
         <v>6300</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="9">
         <v>60</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="9">
         <v>19100</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="9">
         <v>200</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="9">
         <v>2</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <v>250</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="9">
         <v>40</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="9">
         <v>8800</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="9">
         <v>90</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="9">
         <v>26400</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="9">
         <v>280</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="13">
+      <c r="B9" s="9">
         <v>320</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="9">
         <v>50</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="9">
         <v>11400</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="9">
         <v>120</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="10">
         <v>34300</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="10">
         <v>360</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1745,110 +1878,110 @@
       <c r="A10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="9">
         <v>100</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="6">
         <v>20</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="9">
         <f>0.4*B10</f>
         <v>40</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="9">
         <v>2000</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="9">
         <v>50</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="9">
         <v>6000</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="9">
         <v>160</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="13">
+      <c r="B11" s="9">
         <v>180</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="9">
         <v>30</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="9">
         <v>2500</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="9">
         <v>60</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="9">
         <v>7600</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="9">
         <v>200</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="13">
+      <c r="B12" s="9">
         <v>250</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="9">
         <v>40</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="9">
         <v>3500</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="9">
         <v>90</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="9">
         <v>10500</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="9">
         <v>280</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="13">
+      <c r="B13" s="9">
         <v>320</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="9">
         <v>50</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="9">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="9">
         <v>4500</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="9">
         <v>120</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="9">
         <v>13700</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="9">
         <v>360</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="9">
         <v>9</v>
       </c>
     </row>
@@ -1866,30 +1999,30 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="2" t="s">
         <v>49</v>
       </c>
@@ -1908,124 +2041,124 @@
       <c r="B19" s="3">
         <v>20</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="9">
         <v>10021</v>
       </c>
-      <c r="D19" s="13">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13">
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
         <v>10005</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="9">
         <v>1</v>
       </c>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="13">
+      <c r="C20" s="9">
         <v>10021</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="9">
         <v>2</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="9">
         <v>10005</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="13">
+      <c r="C21" s="9">
         <v>10021</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="9">
         <v>3</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="9">
         <v>10005</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="13">
+      <c r="C22" s="9">
         <v>10022</v>
       </c>
-      <c r="D22" s="13">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13">
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
         <v>11002</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="13">
+      <c r="C23" s="9">
         <v>10022</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="9">
         <v>2</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="9">
         <v>11002</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="13">
+      <c r="C24" s="9">
         <v>10022</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="9">
         <v>3</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="9">
         <v>11002</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="13">
+      <c r="C25" s="9">
         <v>10023</v>
       </c>
-      <c r="D25" s="13">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6">
         <v>3000</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="13">
+      <c r="C26" s="9">
         <v>10023</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="9">
         <v>2</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="6">
         <v>6000</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="13">
+      <c r="C27" s="9">
         <v>10023</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="9">
         <v>3</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="6">
         <v>9000</v>
       </c>
       <c r="F27" s="1"/>
@@ -2035,122 +2168,122 @@
       <c r="B28" s="3">
         <v>30</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="9">
         <v>10021</v>
       </c>
-      <c r="D28" s="13">
-        <v>1</v>
-      </c>
-      <c r="F28" s="13">
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9">
         <v>10005</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="13">
+      <c r="C29" s="9">
         <v>10021</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="9">
         <v>2</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="9">
         <v>10005</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="13">
+      <c r="C30" s="9">
         <v>10021</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="9">
         <v>3</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="9">
         <v>10005</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="13">
+      <c r="C31" s="9">
         <v>10022</v>
       </c>
-      <c r="D31" s="13">
-        <v>1</v>
-      </c>
-      <c r="F31" s="13">
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9">
         <v>11002</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="13">
+      <c r="C32" s="9">
         <v>10022</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="9">
         <v>2</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="9">
         <v>11002</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="13">
+      <c r="C33" s="9">
         <v>10022</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="9">
         <v>3</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="9">
         <v>11002</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B34" s="3"/>
-      <c r="C34" s="13">
+      <c r="C34" s="9">
         <v>10023</v>
       </c>
-      <c r="D34" s="13">
-        <v>1</v>
-      </c>
-      <c r="E34" s="10">
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
         <v>3000</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B35" s="3"/>
-      <c r="C35" s="13">
+      <c r="C35" s="9">
         <v>10023</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="9">
         <v>2</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="6">
         <v>6000</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B36" s="3"/>
-      <c r="C36" s="13">
+      <c r="C36" s="9">
         <v>10023</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="9">
         <v>3</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="6">
         <v>9000</v>
       </c>
     </row>
@@ -2158,119 +2291,119 @@
       <c r="B37" s="1">
         <v>40</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="9">
         <v>10021</v>
       </c>
-      <c r="D37" s="13">
-        <v>1</v>
-      </c>
-      <c r="F37" s="13">
+      <c r="D37" s="9">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9">
         <v>10005</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C38" s="13">
+      <c r="C38" s="9">
         <v>10021</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="9">
         <v>3</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="9">
         <v>10005</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C39" s="13">
+      <c r="C39" s="9">
         <v>10021</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="9">
         <v>7</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="9">
         <v>10005</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C40" s="13">
+      <c r="C40" s="9">
         <v>10022</v>
       </c>
-      <c r="D40" s="13">
-        <v>1</v>
-      </c>
-      <c r="F40" s="13">
+      <c r="D40" s="9">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9">
         <v>11002</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C41" s="13">
+      <c r="C41" s="9">
         <v>10022</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="9">
         <v>3</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="9">
         <v>11002</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C42" s="13">
+      <c r="C42" s="9">
         <v>10022</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="9">
         <v>7</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="9">
         <v>11002</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C43" s="13">
+      <c r="C43" s="9">
         <v>10023</v>
       </c>
-      <c r="D43" s="13">
-        <v>1</v>
-      </c>
-      <c r="E43" s="10">
+      <c r="D43" s="9">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6">
         <v>3000</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C44" s="13">
+      <c r="C44" s="9">
         <v>10023</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="9">
         <v>3</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="6">
         <v>9000</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C45" s="13">
+      <c r="C45" s="9">
         <v>10023</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="9">
         <v>7</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="6">
         <v>21000</v>
       </c>
     </row>
@@ -2278,122 +2411,122 @@
       <c r="B46" s="1">
         <v>50</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="9">
         <v>10021</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="6">
         <v>2</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="9">
         <v>10005</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C47" s="13">
+      <c r="C47" s="9">
         <v>10021</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="6">
         <v>4</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="9">
         <v>10005</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C48" s="13">
+      <c r="C48" s="9">
         <v>10021</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="6">
         <v>8</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="9">
         <v>10005</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C49" s="13">
+      <c r="C49" s="9">
         <v>10022</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="6">
         <v>2</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="9">
         <v>11002</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="13">
+      <c r="C50" s="9">
         <v>10022</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="6">
         <v>4</v>
       </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="13">
+      <c r="F50" s="9">
         <v>11002</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C51" s="13">
+      <c r="C51" s="9">
         <v>10022</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="6">
         <v>8</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="9">
         <v>11002</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C52" s="13">
+      <c r="C52" s="9">
         <v>10023</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="6">
         <v>2</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="6">
         <v>6000</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C53" s="13">
+      <c r="C53" s="9">
         <v>10023</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="6">
         <v>4</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="6">
         <v>12000</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C54" s="13">
+      <c r="C54" s="9">
         <v>10023</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="6">
         <v>8</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="6">
         <v>24000</v>
       </c>
     </row>
@@ -2404,36 +2537,36 @@
       <c r="B55" s="1">
         <v>20</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="6">
         <v>2000</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="6">
         <v>50002</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
-      <c r="D56" s="10">
+      <c r="D56" s="6">
         <v>3000</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="6">
         <v>50002</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D57" s="10">
+      <c r="D57" s="6">
         <v>4000</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="6">
         <v>50002</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2441,35 +2574,35 @@
       <c r="B58" s="1">
         <v>30</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="6">
         <v>2500</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="6">
         <v>50002</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D59" s="10">
+      <c r="D59" s="6">
         <v>3500</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="6">
         <v>50002</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D60" s="10">
+      <c r="D60" s="6">
         <v>5000</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="6">
         <v>50002</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2477,35 +2610,35 @@
       <c r="B61" s="1">
         <v>40</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="6">
         <v>3500</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="6">
         <v>50003</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D62" s="10">
+      <c r="D62" s="6">
         <v>5000</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="6">
         <v>50003</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D63" s="10">
+      <c r="D63" s="6">
         <v>7000</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="6">
         <v>50003</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2513,86 +2646,587 @@
       <c r="B64" s="1">
         <v>60</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="6">
         <v>4500</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="6">
         <v>50003</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D65" s="10">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D65" s="6">
         <v>6500</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="6">
         <v>50003</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="4:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D66" s="13">
+    <row r="66" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D66" s="9">
         <v>9000</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="6">
         <v>50003</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="4:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="4:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="4:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="4:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5">
+        <v>20</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="4:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5">
+        <v>40000</v>
+      </c>
+      <c r="H70" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="4:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H71" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="4:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5">
+        <v>40000</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="15"/>
       <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="4:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H73" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="4:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5">
+        <v>40000</v>
+      </c>
+      <c r="H74" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="15"/>
       <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="4:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H75" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="4:7" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="4:7" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" spans="4:7" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5">
+        <v>40000</v>
+      </c>
+      <c r="H76" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H77" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5">
+        <v>30</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5">
+        <v>40000</v>
+      </c>
+      <c r="H78" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H79" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5">
+        <v>40000</v>
+      </c>
+      <c r="H80" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H81" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5">
+        <v>40</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5">
+        <v>40000</v>
+      </c>
+      <c r="H82" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H83" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5">
+        <v>40000</v>
+      </c>
+      <c r="H84" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H85" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5">
+        <v>50</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5">
+        <v>40000</v>
+      </c>
+      <c r="H86" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H87" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5">
+        <v>40000</v>
+      </c>
+      <c r="H88" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H89" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:G17"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.625" style="3"/>
+    <col min="2" max="2" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="13.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1500</v>
+      </c>
+      <c r="B3" s="3">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>2500</v>
+      </c>
+      <c r="B4" s="3">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4500</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4500</v>
+      </c>
+      <c r="B5" s="3">
+        <v>80</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>7500</v>
+      </c>
+      <c r="B6" s="3">
+        <v>210</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="3">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="3">
+        <v>15000</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="3">
+        <v>30000</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>